--- a/medicine/Autisme/Michael_Fitzgerald_(psychiatre)/Michael_Fitzgerald_(psychiatre).xlsx
+++ b/medicine/Autisme/Michael_Fitzgerald_(psychiatre)/Michael_Fitzgerald_(psychiatre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Francis Fitzgerald, né le 7 octobre 1946 à Lucan, est un psychiatre irlandais, professeur de psychiatrie à Trinity College (Dublin). Il est le premier professeur de psychiatrie de l'enfant et de l'adolescent en Irlande spécialisé dans les troubles du spectre de l'autisme (TSA) (1996-2010). Il a rédigé un grand nombre de publications relues par des pairs et a écrit, co-écrit et co-édité 32 livres, dont certains suscitent des controverses.
 </t>
@@ -511,12 +523,49 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a fait ses études de médecine au Trinity College de Dublin (1964-1970). Fitzgerald a diagnostiqué plus de 3 000 personnes avec TSA. Ses principales contributions à la recherche concernent le domaine de l'épidémiologie de l'enfant et la psychiatrie de l'adolescent en Irlande. Il a donné de nombreuses conférences à travers le monde, notamment à Londres, à la Royal Society, la British Academy, et la British Library et à New York, Buenos Aires, à Tbilissi, à Melbourne et dans plusieurs pays européens ainsi qu'en Chine, Malaisie, Corée, et Hawaii.[réf. nécessaire] 
-Il se forme à la psychanalyse à la Société britannique de psychanalyse (1976-1981)[1].
-Point de vue sur l'autisme
-En 2004, il publie Autism and Creativity: Is There a Link Between Autism in Men and Exceptional Ability?, qui identifie Lewis Carroll, Éamon de Valera, Sir Keith Joseph, Ramanujan, Ludwig Wittgenstein et W. B. Yeats pour avoir été peut-être autistes.
+Il se forme à la psychanalyse à la Société britannique de psychanalyse (1976-1981).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Michael_Fitzgerald_(psychiatre)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Fitzgerald_(psychiatre)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Point de vue sur l'autisme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2004, il publie Autism and Creativity: Is There a Link Between Autism in Men and Exceptional Ability?, qui identifie Lewis Carroll, Éamon de Valera, Sir Keith Joseph, Ramanujan, Ludwig Wittgenstein et W. B. Yeats pour avoir été peut-être autistes.
 En 2005, dans The Genesis of Artistic Creativity: Asperger's Syndrome and the Arts , il identifie d'autres suivantes figures historiques comme ayant probablement été autistes :
 Écrivains – Hans Christian Andersen, Lewis Carroll, Bruce Chatwin, Arthur Conan Doyle, Herman Melville, George Orwell, Jonathan Swift et William Butler Yeats.
 Philosophes – A. J. Ayer, Baruch de Spinoza, Emmanuel Kant, Simone Weil, et  Ludwig Wittgenstein
@@ -529,31 +578,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Michael_Fitzgerald_(psychiatre)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Autisme/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Michael_Fitzgerald_(psychiatre)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Autism and Creativity: Is there a link between autism in men and exceptional ability?, 2004, New York: Brunner Routledge,  (ISBN 978-1583912133) 
 Attention Deficit Hyperactivity Disorder, Creativity, Novelty Seeking and Risk, New York: Nova Science Publishers Inc., 2009  (ISBN 978-1604568554) 
